--- a/학습자료/단답형/국어_암기자료.xlsx
+++ b/학습자료/단답형/국어_암기자료.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$136</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="415">
   <si>
     <t>질문</t>
   </si>
@@ -42,9 +45,6 @@
     <t>1주차</t>
   </si>
   <si>
-    <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리, 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
-  </si>
-  <si>
     <t>갓</t>
   </si>
   <si>
@@ -66,9 +66,6 @@
     <t>다스</t>
   </si>
   <si>
-    <t>짚, 땔나무, 채소 따위의 묶음을 세는 단위</t>
-  </si>
-  <si>
     <t>단</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>마름</t>
   </si>
   <si>
-    <t>논밭 넓이의 단위 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도</t>
-  </si>
-  <si>
     <t>마지기</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>문</t>
   </si>
   <si>
-    <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리, 미역 열 장</t>
-  </si>
-  <si>
     <t>뭇</t>
   </si>
   <si>
@@ -114,22 +105,12 @@
     <t>벌</t>
   </si>
   <si>
-    <t>국수, 새끼, 실 따위의 뭉치를 세는 단위</t>
-  </si>
-  <si>
     <t>사리</t>
   </si>
   <si>
-    <t>부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
-  </si>
-  <si>
     <t>섬</t>
   </si>
   <si>
-    <t>①한 손에 잡을 만한 분량을 세는 단위 조기, 고등어, 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리)
-② 미나리나 파 따위 한 손은 한 줌 분량을 이름</t>
-  </si>
-  <si>
     <t>손</t>
   </si>
   <si>
@@ -139,11 +120,6 @@
     <t>술</t>
   </si>
   <si>
-    <t>① 바늘을 세는 단위 24개 
-② 옷감, 피혁 따위를 알맞은 분량으로 싸 놓은 덩이를 세는 단위
-③ 금의 무게를 나타내는 단위 한 쌈은 금 백 냥쭝</t>
-  </si>
-  <si>
     <t>쌈</t>
   </si>
   <si>
@@ -190,9 +166,6 @@
   </si>
   <si>
     <t>제</t>
-  </si>
-  <si>
-    <t>옷, 그릇 따위의 열 벌을 묶어 이른 말</t>
   </si>
   <si>
     <t>죽</t>
@@ -355,9 +328,6 @@
     <t>2주차</t>
   </si>
   <si>
-    <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비, 담배 대여섯 개비</t>
-  </si>
-  <si>
     <t>개비</t>
   </si>
   <si>
@@ -365,10 +335,6 @@
 가지 두 거리</t>
   </si>
   <si>
-    <t>㉡탈놀음, 꼭두각시놀음, 굿 따위에서, 장(場)을 세는 단위 
-한 거리 놀다</t>
-  </si>
-  <si>
     <t>㉠무게의 단위 한 관은 한 근의 열 배로 375kg에 해당 한다
 감자 세 관</t>
   </si>
@@ -376,10 +342,6 @@
     <t>관</t>
   </si>
   <si>
-    <t>㉠식물, 특히 나무를 세는 단위 
-소나무 2천 그루</t>
-  </si>
-  <si>
     <t>그루</t>
   </si>
   <si>
@@ -387,10 +349,6 @@
 두 그루 심는 논농사</t>
   </si>
   <si>
-    <t>㉠무게의 단위 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다 
-쇠고기 한 근</t>
-  </si>
-  <si>
     <t>근</t>
   </si>
   <si>
@@ -408,26 +366,10 @@
 달걀 한 꾸러미</t>
   </si>
   <si>
-    <t>㉠예전에, 엽전을 세던 단위 한 냥은 한 돈의 열 배이다 
-돈 천 냥, 돈 만 냥을 꾸다</t>
-  </si>
-  <si>
     <t>냥</t>
   </si>
   <si>
-    <t>㉠납작한 물건을 세는 단위 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다
-동전 한 닢</t>
-  </si>
-  <si>
     <t>닢</t>
-  </si>
-  <si>
-    <t>㉠물건 열두 개를 묶어 세는 단위 ‘12개’, ‘타(打)’로 순화 
-연필 한 다스</t>
-  </si>
-  <si>
-    <t>㉠짚, 땔나무, 채소 따위의 묶음을 세는 단위 
-볏짚 한 단</t>
   </si>
   <si>
     <t>㉠화살 따위와 같이 가늘고 긴 물건을 세는 단위 
@@ -453,30 +395,13 @@
 엉덩이에 주사를 한 대 맞다</t>
   </si>
   <si>
-    <t>㉠무게의 단위 귀금속이나 한약재 따위의 무게를 잴 때 쓴다 
-한 돈은 한 냥의 10분의 1, 한 푼의 열 배로 375 그램에 해당한다
-금 두 냥 서 돈</t>
-  </si>
-  <si>
     <t>돈</t>
   </si>
   <si>
-    <t>㉠부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다 한 되는 한 말의 10분의 1, 한 홉의 열 배로 약 1)8리 터에 해당한다
-쌀 한 되</t>
-  </si>
-  <si>
     <t>되</t>
   </si>
   <si>
-    <t>㉠곡식이나 물, 술 따위를 되에 담아 그 분량을 세는 단위 
-한 되들이 술병</t>
-  </si>
-  <si>
     <t>되들이</t>
-  </si>
-  <si>
-    <t>㉠논, 밭의 넓이의 단위 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다 
-땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
   </si>
   <si>
     <t>되지기</t>
@@ -504,15 +429,7 @@
     <t>리</t>
   </si>
   <si>
-    <t>㉠짐승이나 물고기, 벌레 따위를 세는 단위 
-소 한 마리</t>
-  </si>
-  <si>
     <t>마리</t>
-  </si>
-  <si>
-    <t>㉠논밭 넓이의 단위 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다
-논 다섯 마지기</t>
   </si>
   <si>
     <t>㉠두부나 묵 따위를 세는 단위 
@@ -522,10 +439,6 @@
     <t>모</t>
   </si>
   <si>
-    <t>㉠액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위 
-물 한 모금, 담배 몇 모금</t>
-  </si>
-  <si>
     <t>모금</t>
   </si>
   <si>
@@ -533,10 +446,6 @@
 십 문 반짜리 운동화</t>
   </si>
   <si>
-    <t>㉠짚, 장작, 채소 따위의 작은 묶음을 세는 단위 
-땔감은 아예 말똥, 소똥을 말려 쓰고, 몇 뭇 안 남은 조 짚은 마소를 먹였다</t>
-  </si>
-  <si>
     <t>㉡볏단을 세는 단위</t>
   </si>
   <si>
@@ -547,9 +456,6 @@
     <t>㉣미역을 묶어 세는 단위 한 뭇은 미역 열 장을 이른다</t>
   </si>
   <si>
-    <t>하나둘, 한둘</t>
-  </si>
-  <si>
     <t>1 2</t>
   </si>
   <si>
@@ -724,6 +630,868 @@
   </si>
   <si>
     <t>나이_숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠길이의 단위. 한 발은 두 팔을 양옆으로 펴서 벌 렸을 때 한쪽 손끝에서 다른 쪽 손끝까지의 길이 이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열두 발 상모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠신발이나 구두의 옆면과 옆면 사이의 간격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기보다 네 발의 볼이 넓지는 않구나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벼 한 섬을 지게에 지다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열 섬지기의 논</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬지기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬지기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥 두어 술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠바늘을 묶어 세는 단위. 한 쌈은 바늘 스물네 개를 이른다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바늘 세 쌈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨랫감 두 쌈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉢금의 무게를 나타내는 단위. 한 쌈은 금 백 냥쭝이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠둘레의 길이를 나타내는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 아름 가까이 되는 느티나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠작고 둥근 모양의 물건을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀 한 알</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉡작고 둥근 열매나 곡식의 낱개를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과 세 알</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠실이나 줄의 가닥을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 올로 튼튼하게 줄을 꼬아라.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠기와를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 우리는 기와 2천 장이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠길이의 단위. 한 자는 한 치의 열 배로 약 30.3cm 에 해당한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비단 넉 자를 끊다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름 한 자락이 산에 걸리다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉡ 한차례의 바람이나 빗줄기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람 한 자락에 땀을 씻다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉢스치는 생각이나 말마디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 자락 춘몽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠종이나 유리 따위의 얇고 넓적한 물건을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이 한 장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉢ 얇은 구름의 덩이를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름 한 장 없이 맑은 하늘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠성적을 나타내는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백 점을 맞다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림 한 점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉢아주 적은 양을 나타내는 말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람 한 점 없는 날씨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉣잘라내거나 뜯어낸 고기 살점을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선회 두 점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉤떨어지는 물방울 따위를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗방울이 한 점 두 점 떨어지기 시작했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추 두 접</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠채소나 과일 따위를 묶어 세는 단위. 한 접은 채소나 과일 백 개를 이른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠한약의 분량을 나타내는 단위. 한 제는 탕약(湯 藥) 스무 첩. 또는 그만한 분량으로 지은 환약(丸 藥) 따위를 이른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍화탕 한 제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버선 한 죽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠집을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기와집 몇 채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가마 두 채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉢이불을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇솜을 넣어 만든 두터운 솜이불 한 채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉣가공하지 아니한 인삼을 묶어 세는 단위. 한 채는 인삼 100근이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인삼 한 채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠길이의 단위 한 척=30.303cm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한약 세 첩 그 집 안방은 창문에서 창문까지 이십오 척 너비다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>척</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>척</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠약봉지에 싼 약의 뭉치를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한약 세 첩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠길이의 단위. 한 치는 한 자의 10분의 1 또는 약 3.03cm에 해당한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 치 혀도 잘못 놀리면 큰 망신을 당한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠사리어 뭉쳐 놓은 실이나 노끈 따위의 뭉치를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올가을에 쓸 가마니를 짜려면 새끼 몇 타래로는 어림없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠실몽당이를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명주실 두 토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠밤이나 곡식의 낱알을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤 한 톨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>톨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>톨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠김을 묶어 세는 단위. 한 톳은 김 100장을 이른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에 가서 김 세 톳을 사 오너라.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>톳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>톳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편지 세 통</t>
+  </si>
+  <si>
+    <t>통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠일정한 길이로 말아 놓은 피륙을 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠말이나 소를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소 두 필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㉠새벽에 닭이 올라앉은 나무 막대를 치면서 우는 차례를 세는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭이 세 홰 울다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충년(沖年)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10세 안팎의 어린 나이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이_종합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지학(志學)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과년(瓜年)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자가 혼기에 이른 나이(여자 16세)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과년(瓜年)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벼슬의 임기가 다한 나이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과년(過年)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주로 여자의 나이가 보통 혼인할 시기를 지난 상태에 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관(弱冠)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이립(而立)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모(二毛)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상년(桑年) 상수(桑壽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명(知命) 지천명(知天命)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불혹(不惑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이순(耳順)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화갑(華甲)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진갑(進甲)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종심(從心)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>희수(喜壽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산수(傘壽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수(米壽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구질(九秩)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>망백(望百)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백수(白壽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수(上壽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100세</t>
+  </si>
+  <si>
+    <t>굴비. 비웃 따위나 고비. 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리. 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
+  </si>
+  <si>
+    <t>짚. 땔나무. 채소 따위의 묶음을 세는 단위</t>
+  </si>
+  <si>
+    <t>논밭 넓이의 단위 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로. 지방마다 다르나 논은 약 150～300평. 밭은 약 100평 정도</t>
+  </si>
+  <si>
+    <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리. 미역 열 장</t>
+  </si>
+  <si>
+    <t>국수. 새끼. 실 따위의 뭉치를 세는 단위</t>
+  </si>
+  <si>
+    <t>부피의 단위 곡식. 가루. 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
+  </si>
+  <si>
+    <t>①한 손에 잡을 만한 분량을 세는 단위 조기. 고등어. 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리)
+② 미나리나 파 따위 한 손은 한 줌 분량을 이름</t>
+  </si>
+  <si>
+    <t>① 바늘을 세는 단위 24개 
+② 옷감. 피혁 따위를 알맞은 분량으로 싸 놓은 덩이를 세는 단위
+③ 금의 무게를 나타내는 단위 한 쌈은 금 백 냥쭝</t>
+  </si>
+  <si>
+    <t>옷. 그릇 따위의 열 벌을 묶어 이른 말</t>
+  </si>
+  <si>
+    <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비. 담배 대여섯 개비</t>
+  </si>
+  <si>
+    <t>㉡탈놀음. 꼭두각시놀음. 굿 따위에서. 장(場)을 세는 단위 
+한 거리 놀다</t>
+  </si>
+  <si>
+    <t>㉠식물. 특히 나무를 세는 단위 
+소나무 2천 그루</t>
+  </si>
+  <si>
+    <t>㉠무게의 단위 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고. 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다 
+쇠고기 한 근</t>
+  </si>
+  <si>
+    <t>㉠예전에. 엽전을 세던 단위 한 냥은 한 돈의 열 배이다 
+돈 천 냥. 돈 만 냥을 꾸다</t>
+  </si>
+  <si>
+    <t>㉠납작한 물건을 세는 단위 흔히 돈이나 가마니. 멍석 따위를 셀 때 쓴다
+동전 한 닢</t>
+  </si>
+  <si>
+    <t>㉠물건 열두 개를 묶어 세는 단위 ‘12개’. ‘타(打)’로 순화 
+연필 한 다스</t>
+  </si>
+  <si>
+    <t>㉠짚. 땔나무. 채소 따위의 묶음을 세는 단위 
+볏짚 한 단</t>
+  </si>
+  <si>
+    <t>㉠무게의 단위 귀금속이나 한약재 따위의 무게를 잴 때 쓴다 
+한 돈은 한 냥의 10분의 1. 한 푼의 열 배로 375 그램에 해당한다
+금 두 냥 서 돈</t>
+  </si>
+  <si>
+    <t>㉠부피의 단위 곡식. 가루. 액체 따위의 부피를 잴 때 쓴 다 한 되는 한 말의 10분의 1. 한 홉의 열 배로 약 1)8리 터에 해당한다
+쌀 한 되</t>
+  </si>
+  <si>
+    <t>㉠곡식이나 물. 술 따위를 되에 담아 그 분량을 세는 단위 
+한 되들이 술병</t>
+  </si>
+  <si>
+    <t>㉠논. 밭의 넓이의 단위 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다 
+땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
+  </si>
+  <si>
+    <t>㉠짐승이나 물고기. 벌레 따위를 세는 단위 
+소 한 마리</t>
+  </si>
+  <si>
+    <t>㉠논밭 넓이의 단위 지방마다 다르나 논은 약 150~300 평. 밭은 약 100평 정도이다
+논 다섯 마지기</t>
+  </si>
+  <si>
+    <t>㉠액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위 
+물 한 모금. 담배 몇 모금</t>
+  </si>
+  <si>
+    <t>㉠짚. 장작. 채소 따위의 작은 묶음을 세는 단위 
+땔감은 아예 말똥. 소똥을 말려 쓰고. 몇 뭇 안 남은 조 짚은 마소를 먹였다</t>
+  </si>
+  <si>
+    <t>하나둘. 한둘</t>
+  </si>
+  <si>
+    <t>㉠국수. 새끼. 실 따위의 뭉치를 세는 단위로 감은 덩이 의 길이를 가리킴. 대개 30~50발이 한 사리</t>
+  </si>
+  <si>
+    <t>노끈 한 사리. 국수 한 사리</t>
+  </si>
+  <si>
+    <t>㉠부피의 단위. 곡식. 가루. 액체 따위의 부피를 잴 때 쓴다. 한 섬은 한 말의 열 배로 약 180리터에 해당한다.</t>
+  </si>
+  <si>
+    <t>㉠논밭 넓이의 단위. 한 섬지기는 볍씨 한 섬의 모 또는 씨앗을 심을 만한 넓이로 한 마지기의 열 배 이며 논은 약 2.000평. 밭은 약 1.000평이다.</t>
+  </si>
+  <si>
+    <t>㉡옷감. 피혁 따위를 알맞은 분량으로 싸 놓은 덩이 를 세는 단위</t>
+  </si>
+  <si>
+    <t>㉠넓게 퍼진 안개나 구름. 어둠 따위</t>
+  </si>
+  <si>
+    <t>㉡ 활. 쇠뇌. 금슬(琴瑟)을 세는 단위</t>
+  </si>
+  <si>
+    <t>㉡그림. 옷 따위를 세는 단위</t>
+  </si>
+  <si>
+    <t>㉠옷. 그릇 따위의 열 벌을 묶어 세는 단위</t>
+  </si>
+  <si>
+    <t>㉡큰 기구. 기물. 가구 따위를 세는 단위</t>
+  </si>
+  <si>
+    <t>㉠편지나 서류. 전화 따위를 세는 단위</t>
+  </si>
+  <si>
+    <t>예물 단자를 적어 보면 황 모시 열 필. 흰 모시 스무 필. 검 은 마포 열 필. 면주 스무 필…</t>
+  </si>
+  <si>
+    <t>방년(芳年). 묘년(妙年)</t>
+  </si>
+  <si>
+    <t>紙婚式(지혼식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼기념일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花婚式(화혼식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>錫婚式(석혼식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10주년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁器婚式(자기혼식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20주년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀婚式(은혼식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25주년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回婚式(회혼식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60주년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>77세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>62세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>61세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자 나이 20세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1099,15 +1867,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="157.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="76.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1135,642 +1905,642 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>39</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -1779,12 +2549,12 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>15</v>
@@ -1793,12 +2563,12 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -1807,12 +2577,12 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>30</v>
@@ -1821,12 +2591,12 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>40</v>
@@ -1835,12 +2605,12 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>50</v>
@@ -1849,12 +2619,12 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>60</v>
@@ -1863,12 +2633,12 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>61</v>
@@ -1877,12 +2647,12 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>61</v>
@@ -1891,12 +2661,12 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>61</v>
@@ -1905,12 +2675,12 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>70</v>
@@ -1919,12 +2689,12 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>77</v>
@@ -1933,12 +2703,12 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>88</v>
@@ -1947,12 +2717,12 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>99</v>
@@ -1961,1046 +2731,2657 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>113</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>116</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>119</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>125</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>127</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>129</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" t="s">
         <v>14</v>
       </c>
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" t="s">
-        <v>16</v>
-      </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>137</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>139</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>141</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>143</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>151</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>153</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>156</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>159</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C105" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D110" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D111" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D113" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D115" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B116" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D116" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D117" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D118" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" t="s">
+        <v>100</v>
+      </c>
+      <c r="D119" t="s">
         <v>191</v>
-      </c>
-      <c r="B119" t="s">
-        <v>192</v>
-      </c>
-      <c r="C119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D119" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C122" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C123" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D123" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D124" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D125" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D130" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C131" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D131" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C132" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D132" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C133" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D133" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C134" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>185</v>
+      </c>
+      <c r="B135" t="s">
+        <v>182</v>
+      </c>
+      <c r="C135" t="s">
+        <v>100</v>
+      </c>
+      <c r="D135" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B136" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" t="s">
+        <v>316</v>
+      </c>
+      <c r="D136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>196</v>
+      </c>
+      <c r="B137" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" t="s">
+        <v>316</v>
+      </c>
+      <c r="D137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" t="s">
+        <v>199</v>
+      </c>
+      <c r="C138" t="s">
+        <v>316</v>
+      </c>
+      <c r="D138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" t="s">
+        <v>199</v>
+      </c>
+      <c r="C139" t="s">
+        <v>316</v>
+      </c>
+      <c r="D139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>371</v>
+      </c>
+      <c r="B140" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" t="s">
+        <v>316</v>
+      </c>
+      <c r="D140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" t="s">
+        <v>316</v>
+      </c>
+      <c r="D141" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>373</v>
+      </c>
+      <c r="B142" t="s">
+        <v>203</v>
+      </c>
+      <c r="C142" t="s">
+        <v>316</v>
+      </c>
+      <c r="D142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>204</v>
+      </c>
+      <c r="B143" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" t="s">
+        <v>316</v>
+      </c>
+      <c r="D143" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>374</v>
+      </c>
+      <c r="B144" t="s">
+        <v>206</v>
+      </c>
+      <c r="C144" t="s">
+        <v>316</v>
+      </c>
+      <c r="D144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" t="s">
+        <v>207</v>
+      </c>
+      <c r="C145" t="s">
+        <v>316</v>
+      </c>
+      <c r="D145" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>208</v>
+      </c>
+      <c r="B146" t="s">
+        <v>210</v>
+      </c>
+      <c r="C146" t="s">
+        <v>316</v>
+      </c>
+      <c r="D146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>209</v>
+      </c>
+      <c r="B147" t="s">
         <v>211</v>
       </c>
-      <c r="B135" t="s">
-        <v>208</v>
-      </c>
-      <c r="C135" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C147" t="s">
+        <v>316</v>
+      </c>
+      <c r="D147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>212</v>
+      </c>
+      <c r="B148" t="s">
+        <v>213</v>
+      </c>
+      <c r="C148" t="s">
+        <v>316</v>
+      </c>
+      <c r="D148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>214</v>
+      </c>
+      <c r="B149" t="s">
+        <v>213</v>
+      </c>
+      <c r="C149" t="s">
+        <v>316</v>
+      </c>
+      <c r="D149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>375</v>
+      </c>
+      <c r="B150" t="s">
+        <v>213</v>
+      </c>
+      <c r="C150" t="s">
+        <v>316</v>
+      </c>
+      <c r="D150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" t="s">
+        <v>213</v>
+      </c>
+      <c r="C151" t="s">
+        <v>316</v>
+      </c>
+      <c r="D151" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" t="s">
+        <v>213</v>
+      </c>
+      <c r="C152" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>217</v>
       </c>
+      <c r="B153" t="s">
+        <v>219</v>
+      </c>
+      <c r="C153" t="s">
+        <v>316</v>
+      </c>
+      <c r="D153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>218</v>
+      </c>
+      <c r="B154" t="s">
+        <v>220</v>
+      </c>
+      <c r="C154" t="s">
+        <v>316</v>
+      </c>
+      <c r="D154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>221</v>
+      </c>
+      <c r="B155" t="s">
+        <v>225</v>
+      </c>
+      <c r="C155" t="s">
+        <v>316</v>
+      </c>
+      <c r="D155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>222</v>
+      </c>
+      <c r="B156" t="s">
+        <v>225</v>
+      </c>
+      <c r="C156" t="s">
+        <v>316</v>
+      </c>
+      <c r="D156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>223</v>
+      </c>
+      <c r="B157" t="s">
+        <v>225</v>
+      </c>
+      <c r="C157" t="s">
+        <v>316</v>
+      </c>
+      <c r="D157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>224</v>
+      </c>
+      <c r="B158" t="s">
+        <v>225</v>
+      </c>
+      <c r="C158" t="s">
+        <v>316</v>
+      </c>
+      <c r="D158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" t="s">
+        <v>228</v>
+      </c>
+      <c r="C159" t="s">
+        <v>316</v>
+      </c>
+      <c r="D159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>227</v>
+      </c>
+      <c r="B160" t="s">
+        <v>229</v>
+      </c>
+      <c r="C160" t="s">
+        <v>316</v>
+      </c>
+      <c r="D160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>230</v>
+      </c>
+      <c r="B161" t="s">
+        <v>232</v>
+      </c>
+      <c r="C161" t="s">
+        <v>316</v>
+      </c>
+      <c r="D161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>231</v>
+      </c>
+      <c r="B162" t="s">
+        <v>233</v>
+      </c>
+      <c r="C162" t="s">
+        <v>316</v>
+      </c>
+      <c r="D162" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>234</v>
+      </c>
+      <c r="B163" t="s">
+        <v>236</v>
+      </c>
+      <c r="C163" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" t="s">
+        <v>237</v>
+      </c>
+      <c r="C164" t="s">
+        <v>316</v>
+      </c>
+      <c r="D164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>376</v>
+      </c>
+      <c r="B165" t="s">
+        <v>243</v>
+      </c>
+      <c r="C165" t="s">
+        <v>316</v>
+      </c>
+      <c r="D165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" t="s">
+        <v>243</v>
+      </c>
+      <c r="C166" t="s">
+        <v>316</v>
+      </c>
+      <c r="D166" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>239</v>
+      </c>
+      <c r="B167" t="s">
+        <v>243</v>
+      </c>
+      <c r="C167" t="s">
+        <v>316</v>
+      </c>
+      <c r="D167" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" t="s">
+        <v>243</v>
+      </c>
+      <c r="C168" t="s">
+        <v>316</v>
+      </c>
+      <c r="D168" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>241</v>
+      </c>
+      <c r="B169" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" t="s">
+        <v>316</v>
+      </c>
+      <c r="D169" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>242</v>
+      </c>
+      <c r="B170" t="s">
+        <v>243</v>
+      </c>
+      <c r="C170" t="s">
+        <v>316</v>
+      </c>
+      <c r="D170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>244</v>
+      </c>
+      <c r="B171" t="s">
+        <v>248</v>
+      </c>
+      <c r="C171" t="s">
+        <v>316</v>
+      </c>
+      <c r="D171" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>245</v>
+      </c>
+      <c r="B172" t="s">
+        <v>248</v>
+      </c>
+      <c r="C172" t="s">
+        <v>316</v>
+      </c>
+      <c r="D172" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>377</v>
+      </c>
+      <c r="B173" t="s">
+        <v>248</v>
+      </c>
+      <c r="C173" t="s">
+        <v>316</v>
+      </c>
+      <c r="D173" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" t="s">
+        <v>316</v>
+      </c>
+      <c r="D174" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>247</v>
+      </c>
+      <c r="B175" t="s">
+        <v>248</v>
+      </c>
+      <c r="C175" t="s">
+        <v>316</v>
+      </c>
+      <c r="D175" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>249</v>
+      </c>
+      <c r="B176" t="s">
+        <v>250</v>
+      </c>
+      <c r="C176" t="s">
+        <v>316</v>
+      </c>
+      <c r="D176" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>251</v>
+      </c>
+      <c r="B177" t="s">
+        <v>260</v>
+      </c>
+      <c r="C177" t="s">
+        <v>316</v>
+      </c>
+      <c r="D177" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>378</v>
+      </c>
+      <c r="B178" t="s">
+        <v>259</v>
+      </c>
+      <c r="C178" t="s">
+        <v>316</v>
+      </c>
+      <c r="D178" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>252</v>
+      </c>
+      <c r="B179" t="s">
+        <v>259</v>
+      </c>
+      <c r="C179" t="s">
+        <v>316</v>
+      </c>
+      <c r="D179" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>253</v>
+      </c>
+      <c r="B180" t="s">
+        <v>259</v>
+      </c>
+      <c r="C180" t="s">
+        <v>316</v>
+      </c>
+      <c r="D180" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181" t="s">
+        <v>259</v>
+      </c>
+      <c r="C181" t="s">
+        <v>316</v>
+      </c>
+      <c r="D181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>255</v>
+      </c>
+      <c r="B182" t="s">
+        <v>259</v>
+      </c>
+      <c r="C182" t="s">
+        <v>316</v>
+      </c>
+      <c r="D182" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>256</v>
+      </c>
+      <c r="B183" t="s">
+        <v>259</v>
+      </c>
+      <c r="C183" t="s">
+        <v>316</v>
+      </c>
+      <c r="D183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>257</v>
+      </c>
+      <c r="B184" t="s">
+        <v>259</v>
+      </c>
+      <c r="C184" t="s">
+        <v>316</v>
+      </c>
+      <c r="D184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>258</v>
+      </c>
+      <c r="B185" t="s">
+        <v>259</v>
+      </c>
+      <c r="C185" t="s">
+        <v>316</v>
+      </c>
+      <c r="D185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>263</v>
+      </c>
+      <c r="B186" t="s">
+        <v>262</v>
+      </c>
+      <c r="C186" t="s">
+        <v>316</v>
+      </c>
+      <c r="D186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>261</v>
+      </c>
+      <c r="B187" t="s">
+        <v>262</v>
+      </c>
+      <c r="C187" t="s">
+        <v>316</v>
+      </c>
+      <c r="D187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" t="s">
+        <v>265</v>
+      </c>
+      <c r="C188" t="s">
+        <v>316</v>
+      </c>
+      <c r="D188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>266</v>
+      </c>
+      <c r="B189" t="s">
+        <v>265</v>
+      </c>
+      <c r="C189" t="s">
+        <v>316</v>
+      </c>
+      <c r="D189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>379</v>
+      </c>
+      <c r="B190" t="s">
+        <v>268</v>
+      </c>
+      <c r="C190" t="s">
+        <v>316</v>
+      </c>
+      <c r="D190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>267</v>
+      </c>
+      <c r="B191" t="s">
+        <v>269</v>
+      </c>
+      <c r="C191" t="s">
+        <v>316</v>
+      </c>
+      <c r="D191" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>270</v>
+      </c>
+      <c r="B192" t="s">
+        <v>278</v>
+      </c>
+      <c r="C192" t="s">
+        <v>316</v>
+      </c>
+      <c r="D192" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>271</v>
+      </c>
+      <c r="B193" t="s">
+        <v>277</v>
+      </c>
+      <c r="C193" t="s">
+        <v>316</v>
+      </c>
+      <c r="D193" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>380</v>
+      </c>
+      <c r="B194" t="s">
+        <v>277</v>
+      </c>
+      <c r="C194" t="s">
+        <v>316</v>
+      </c>
+      <c r="D194" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>272</v>
+      </c>
+      <c r="B195" t="s">
+        <v>277</v>
+      </c>
+      <c r="C195" t="s">
+        <v>316</v>
+      </c>
+      <c r="D195" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>273</v>
+      </c>
+      <c r="B196" t="s">
+        <v>277</v>
+      </c>
+      <c r="C196" t="s">
+        <v>316</v>
+      </c>
+      <c r="D196" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>274</v>
+      </c>
+      <c r="B197" t="s">
+        <v>277</v>
+      </c>
+      <c r="C197" t="s">
+        <v>316</v>
+      </c>
+      <c r="D197" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>275</v>
+      </c>
+      <c r="B198" t="s">
+        <v>277</v>
+      </c>
+      <c r="C198" t="s">
+        <v>316</v>
+      </c>
+      <c r="D198" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>276</v>
+      </c>
+      <c r="B199" t="s">
+        <v>277</v>
+      </c>
+      <c r="C199" t="s">
+        <v>316</v>
+      </c>
+      <c r="D199" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>279</v>
+      </c>
+      <c r="B200" t="s">
+        <v>281</v>
+      </c>
+      <c r="C200" t="s">
+        <v>316</v>
+      </c>
+      <c r="D200" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>280</v>
+      </c>
+      <c r="B201" t="s">
+        <v>282</v>
+      </c>
+      <c r="C201" t="s">
+        <v>316</v>
+      </c>
+      <c r="D201" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>283</v>
+      </c>
+      <c r="B202" t="s">
+        <v>285</v>
+      </c>
+      <c r="C202" t="s">
+        <v>316</v>
+      </c>
+      <c r="D202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>284</v>
+      </c>
+      <c r="B203" t="s">
+        <v>285</v>
+      </c>
+      <c r="C203" t="s">
+        <v>316</v>
+      </c>
+      <c r="D203" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>286</v>
+      </c>
+      <c r="B204" t="s">
+        <v>287</v>
+      </c>
+      <c r="C204" t="s">
+        <v>316</v>
+      </c>
+      <c r="D204" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>288</v>
+      </c>
+      <c r="B205" t="s">
+        <v>289</v>
+      </c>
+      <c r="C205" t="s">
+        <v>316</v>
+      </c>
+      <c r="D205" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>290</v>
+      </c>
+      <c r="B206" t="s">
+        <v>292</v>
+      </c>
+      <c r="C206" t="s">
+        <v>316</v>
+      </c>
+      <c r="D206" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>291</v>
+      </c>
+      <c r="B207" t="s">
+        <v>293</v>
+      </c>
+      <c r="C207" t="s">
+        <v>316</v>
+      </c>
+      <c r="D207" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>294</v>
+      </c>
+      <c r="B208" t="s">
+        <v>296</v>
+      </c>
+      <c r="C208" t="s">
+        <v>316</v>
+      </c>
+      <c r="D208" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>295</v>
+      </c>
+      <c r="B209" t="s">
+        <v>296</v>
+      </c>
+      <c r="C209" t="s">
+        <v>316</v>
+      </c>
+      <c r="D209" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>297</v>
+      </c>
+      <c r="B210" t="s">
+        <v>299</v>
+      </c>
+      <c r="C210" t="s">
+        <v>316</v>
+      </c>
+      <c r="D210" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>298</v>
+      </c>
+      <c r="B211" t="s">
+        <v>300</v>
+      </c>
+      <c r="C211" t="s">
+        <v>316</v>
+      </c>
+      <c r="D211" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>301</v>
+      </c>
+      <c r="B212" t="s">
+        <v>303</v>
+      </c>
+      <c r="C212" t="s">
+        <v>316</v>
+      </c>
+      <c r="D212" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>302</v>
+      </c>
+      <c r="B213" t="s">
+        <v>304</v>
+      </c>
+      <c r="C213" t="s">
+        <v>316</v>
+      </c>
+      <c r="D213" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>381</v>
+      </c>
+      <c r="B214" t="s">
+        <v>306</v>
+      </c>
+      <c r="C214" t="s">
+        <v>316</v>
+      </c>
+      <c r="D214" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>305</v>
+      </c>
+      <c r="B215" t="s">
+        <v>307</v>
+      </c>
+      <c r="C215" t="s">
+        <v>316</v>
+      </c>
+      <c r="D215" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>308</v>
+      </c>
+      <c r="B216" t="s">
+        <v>309</v>
+      </c>
+      <c r="C216" t="s">
+        <v>316</v>
+      </c>
+      <c r="D216" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>382</v>
+      </c>
+      <c r="B217" t="s">
+        <v>309</v>
+      </c>
+      <c r="C217" t="s">
+        <v>316</v>
+      </c>
+      <c r="D217" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>310</v>
+      </c>
+      <c r="B218" t="s">
+        <v>311</v>
+      </c>
+      <c r="C218" t="s">
+        <v>316</v>
+      </c>
+      <c r="D218" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>312</v>
+      </c>
+      <c r="B219" t="s">
+        <v>309</v>
+      </c>
+      <c r="C219" t="s">
+        <v>316</v>
+      </c>
+      <c r="D219" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>313</v>
+      </c>
+      <c r="B220" t="s">
+        <v>315</v>
+      </c>
+      <c r="C220" t="s">
+        <v>316</v>
+      </c>
+      <c r="D220" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>314</v>
+      </c>
+      <c r="B221" t="s">
+        <v>315</v>
+      </c>
+      <c r="C221" t="s">
+        <v>316</v>
+      </c>
+      <c r="D221" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>317</v>
+      </c>
+      <c r="B222" t="s">
+        <v>318</v>
+      </c>
+      <c r="C222" t="s">
+        <v>316</v>
+      </c>
+      <c r="D222" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>320</v>
+      </c>
+      <c r="B223" t="s">
+        <v>414</v>
+      </c>
+      <c r="C223" t="s">
+        <v>316</v>
+      </c>
+      <c r="D223" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>321</v>
+      </c>
+      <c r="B224" t="s">
+        <v>322</v>
+      </c>
+      <c r="C224" t="s">
+        <v>316</v>
+      </c>
+      <c r="D224" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>323</v>
+      </c>
+      <c r="B225" t="s">
+        <v>324</v>
+      </c>
+      <c r="C225" t="s">
+        <v>316</v>
+      </c>
+      <c r="D225" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>325</v>
+      </c>
+      <c r="B226" t="s">
+        <v>326</v>
+      </c>
+      <c r="C226" t="s">
+        <v>316</v>
+      </c>
+      <c r="D226" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>327</v>
+      </c>
+      <c r="B227" t="s">
+        <v>413</v>
+      </c>
+      <c r="C227" t="s">
+        <v>316</v>
+      </c>
+      <c r="D227" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>383</v>
+      </c>
+      <c r="B228" t="s">
+        <v>412</v>
+      </c>
+      <c r="C228" t="s">
+        <v>316</v>
+      </c>
+      <c r="D228" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>328</v>
+      </c>
+      <c r="B229" t="s">
+        <v>411</v>
+      </c>
+      <c r="C229" t="s">
+        <v>316</v>
+      </c>
+      <c r="D229" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>329</v>
+      </c>
+      <c r="B230" t="s">
+        <v>410</v>
+      </c>
+      <c r="C230" t="s">
+        <v>316</v>
+      </c>
+      <c r="D230" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>332</v>
+      </c>
+      <c r="B231" t="s">
+        <v>409</v>
+      </c>
+      <c r="C231" t="s">
+        <v>316</v>
+      </c>
+      <c r="D231" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>330</v>
+      </c>
+      <c r="B232" t="s">
+        <v>408</v>
+      </c>
+      <c r="C232" t="s">
+        <v>316</v>
+      </c>
+      <c r="D232" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>331</v>
+      </c>
+      <c r="B233" t="s">
+        <v>407</v>
+      </c>
+      <c r="C233" t="s">
+        <v>316</v>
+      </c>
+      <c r="D233" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>333</v>
+      </c>
+      <c r="B234" t="s">
+        <v>406</v>
+      </c>
+      <c r="C234" t="s">
+        <v>316</v>
+      </c>
+      <c r="D234" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>334</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C235" t="s">
+        <v>316</v>
+      </c>
+      <c r="D235" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>335</v>
+      </c>
+      <c r="B236" t="s">
+        <v>404</v>
+      </c>
+      <c r="C236" t="s">
+        <v>316</v>
+      </c>
+      <c r="D236" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>336</v>
+      </c>
+      <c r="B237" t="s">
+        <v>403</v>
+      </c>
+      <c r="C237" t="s">
+        <v>316</v>
+      </c>
+      <c r="D237" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>337</v>
+      </c>
+      <c r="B238" t="s">
+        <v>402</v>
+      </c>
+      <c r="C238" t="s">
+        <v>316</v>
+      </c>
+      <c r="D238" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>338</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C239" t="s">
+        <v>316</v>
+      </c>
+      <c r="D239" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>339</v>
+      </c>
+      <c r="B240" t="s">
+        <v>400</v>
+      </c>
+      <c r="C240" t="s">
+        <v>316</v>
+      </c>
+      <c r="D240" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>340</v>
+      </c>
+      <c r="B241" t="s">
+        <v>399</v>
+      </c>
+      <c r="C241" t="s">
+        <v>316</v>
+      </c>
+      <c r="D241" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>341</v>
+      </c>
+      <c r="B242" t="s">
+        <v>398</v>
+      </c>
+      <c r="C242" t="s">
+        <v>316</v>
+      </c>
+      <c r="D242" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>342</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C243" t="s">
+        <v>316</v>
+      </c>
+      <c r="D243" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>343</v>
+      </c>
+      <c r="B244" t="s">
+        <v>344</v>
+      </c>
+      <c r="C244" t="s">
+        <v>316</v>
+      </c>
+      <c r="D244" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>384</v>
+      </c>
+      <c r="B245" t="s">
+        <v>385</v>
+      </c>
+      <c r="C245" t="s">
+        <v>316</v>
+      </c>
+      <c r="D245" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>387</v>
+      </c>
+      <c r="B246" t="s">
+        <v>388</v>
+      </c>
+      <c r="C246" t="s">
+        <v>316</v>
+      </c>
+      <c r="D246" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>389</v>
+      </c>
+      <c r="B247" t="s">
+        <v>390</v>
+      </c>
+      <c r="C247" t="s">
+        <v>316</v>
+      </c>
+      <c r="D247" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>391</v>
+      </c>
+      <c r="B248" t="s">
+        <v>392</v>
+      </c>
+      <c r="C248" t="s">
+        <v>316</v>
+      </c>
+      <c r="D248" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>393</v>
+      </c>
+      <c r="B249" t="s">
+        <v>394</v>
+      </c>
+      <c r="C249" t="s">
+        <v>316</v>
+      </c>
+      <c r="D249" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>395</v>
+      </c>
+      <c r="B250" t="s">
+        <v>396</v>
+      </c>
+      <c r="C250" t="s">
+        <v>316</v>
+      </c>
+      <c r="D250" t="s">
+        <v>386</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D136"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
